--- a/data/vehicles/Brzesko/Brzesko_vehicles.xlsx
+++ b/data/vehicles/Brzesko/Brzesko_vehicles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szmat\Documents\GitHub\TransportPy\data\requests\Brzesko\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szmat\Documents\GitHub\TransportPy\data\vehicles\Brzesko\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96500620-227D-4359-9350-FB48BA264C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB6E11D-1001-426F-B09C-2C9DF2DFCF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2055" windowWidth="28800" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="1365" windowWidth="28800" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,10 +53,10 @@
     <t>type</t>
   </si>
   <si>
-    <t>taxi</t>
+    <t>speed</t>
   </si>
   <si>
-    <t>speed</t>
+    <t>taxi</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +496,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -515,7 +515,7 @@
         <v>2016-01-02 00:00:00</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -532,7 +532,7 @@
         <v>3042772633</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:D12" si="0">"2016-01-01 00:00:00"</f>
+        <f t="shared" ref="C3:C12" si="0">"2016-01-01 00:00:00"</f>
         <v>2016-01-01 00:00:00</v>
       </c>
       <c r="D3" t="str">
@@ -540,7 +540,7 @@
         <v>2016-01-02 00:00:00</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -565,7 +565,7 @@
         <v>2016-01-02 00:00:00</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -590,7 +590,7 @@
         <v>2016-01-02 00:00:00</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -615,7 +615,7 @@
         <v>2016-01-02 00:00:00</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -640,7 +640,7 @@
         <v>2016-01-02 00:00:00</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -665,7 +665,7 @@
         <v>2016-01-02 00:00:00</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -690,7 +690,7 @@
         <v>2016-01-02 00:00:00</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -715,7 +715,7 @@
         <v>2016-01-02 00:00:00</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -740,7 +740,7 @@
         <v>2016-01-02 00:00:00</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11">
         <v>4</v>
@@ -765,7 +765,7 @@
         <v>2016-01-02 00:00:00</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12">
         <v>4</v>
